--- a/DuAn2_TeamNguyenXuanThang/DuAn2Lan5_TeamNguyenXuanThang/DuAn2_Team(NguyenXuanThang)/tuan5.xlsx
+++ b/DuAn2_TeamNguyenXuanThang/DuAn2Lan5_TeamNguyenXuanThang/DuAn2_Team(NguyenXuanThang)/tuan5.xlsx
@@ -5,14 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DuAn2_TeamNguyenXuanThang\DuAn2Lan4_TeamNguyenXuanThang\DuAn2_Team(NguyenXuanThang)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\DuAnTotNghiep\DuAn2_TeamNguyenXuanThang\DuAn2Lan5_TeamNguyenXuanThang\DuAn2_Team(NguyenXuanThang)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="58">
   <si>
     <t>Ngành :Ứng dụng phần mềm</t>
   </si>
@@ -41,6 +44,15 @@
     <t>Thành viên: Nguyễn Xuân Thắng (Nhóm trưởng)</t>
   </si>
   <si>
+    <t xml:space="preserve">                     Nguyễn Ngọc Toàn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     Nguyễn Đình Hoàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     Nguyễn Công Thành</t>
+  </si>
+  <si>
     <t>TT</t>
   </si>
   <si>
@@ -65,6 +77,9 @@
     <t>Nguyễn Ngọc Toàn</t>
   </si>
   <si>
+    <t>Phân tích chức năng chức năng cho phép khách hàng duyệt sản phẩm trên trang web và nhấn nút đặt hàng sản phẩm đã chọn.</t>
+  </si>
+  <si>
     <t>Nguyễn Công Thành</t>
   </si>
   <si>
@@ -74,49 +89,119 @@
     <t>Giảng viên phụ trách môn</t>
   </si>
   <si>
+    <t>Người Lập</t>
+  </si>
+  <si>
     <t>Ngày  00 Tháng 07 năm 2017</t>
   </si>
   <si>
     <t>Nguyễn Phước Cường</t>
   </si>
   <si>
+    <t>Phân tích chức năng thống kê đơn đặt hàng đặt bởi khách hàng, xem tình trạng đơn đặt hàng như: Đã giao hàng, và chi tiết đơn đặt hàng</t>
+  </si>
+  <si>
+    <t>Phân tích chức năng hiển thị thông tin chi tiết người dùng và có các chức năng Thêm mới, sửa, xóa thông tin người dùng</t>
+  </si>
+  <si>
+    <t>Thành viên:</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Thắng (Nhóm trưởng)</t>
+  </si>
+  <si>
+    <t>Thống kê đơn đặt hàng đặt bởi khách hàng, xem tình trạng đơn đặt hàng như: Đã giao hàng, và chi tiết đơn đặt hàng</t>
+  </si>
+  <si>
     <t>đến ngày</t>
   </si>
   <si>
-    <t>18/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  Nguyễn Ngọc Toàn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  Nguyễn Đình Hoàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  Nguyễn Công Thành</t>
-  </si>
-  <si>
-    <t>Xác định thực thể</t>
-  </si>
-  <si>
-    <t>xác định mối quan hệ</t>
-  </si>
-  <si>
-    <t>xác định thuộc tính</t>
-  </si>
-  <si>
-    <t>Xác định thực thể website</t>
-  </si>
-  <si>
-    <t>xác định mối quan hệ của các thực thể</t>
-  </si>
-  <si>
-    <t>xác định thuộc tính của các thực thể</t>
-  </si>
-  <si>
-    <t>25/10/2017</t>
-  </si>
-  <si>
-    <t>Vẽ ERD và sơ đồ quan hệ</t>
+    <t>thiết kế photoshop trang Tìm kiếm sản phẩm</t>
+  </si>
+  <si>
+    <t>thiết kế photoshop trang Quản lý sản phẩm</t>
+  </si>
+  <si>
+    <t>thiết kế photoshop trang Quản lý Bình Luận</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thiết kế photoshop Trang thanh toán
+</t>
+  </si>
+  <si>
+    <t>thiết kế photoshop trang chức năng khách hàng nhập thông tin vào thanh tìm kiếm để tìm kiếm sản phẩm</t>
+  </si>
+  <si>
+    <t>thiết kế photoshop trang chức năng quản lý thông tin hình ảnh sản phẩm, người quản trị có thể upload hình ảnh sản phẩm, nhập thông tin mô tả tính năng sản phẩm, giá cả, số  lượng</t>
+  </si>
+  <si>
+    <t>thiết kế photoshop trang Quản lý bình luận của các tài khoản khách hàng và mạng liên kết</t>
+  </si>
+  <si>
+    <t>thiết kế photoshop trang thanh toán cho khách hàng</t>
+  </si>
+  <si>
+    <t>thiết kế photoshop trang Bình luận + chi tiet san pham</t>
+  </si>
+  <si>
+    <t>thiết kế photoshop trang Quản lý danh mục sản phẩm</t>
+  </si>
+  <si>
+    <t>thiết kế photoshop trang Quản lý Tin tức</t>
+  </si>
+  <si>
+    <t>thiết kế photoshop trang trang liên hệ</t>
+  </si>
+  <si>
+    <t>thiết kế photoshop trang bình luận về sản phẩm, nội dung và thông tin người bình luận cần lưu trong database.</t>
+  </si>
+  <si>
+    <t>thiết kế photoshop trang chức năng quản lý thông tin danh mục sản phẩm bao gồm các chức năng thêm, xóa sửa danh mục sản phẩm</t>
+  </si>
+  <si>
+    <t>thiết kế photoshop trang Quản lý thông tin danh mục tin tức bao gồm các chức năng thêm, xóa sửa tin tức</t>
+  </si>
+  <si>
+    <t>thiết kế photoshop trang liên hệ với người quản lý qua email hoặc thông tin liên hệ của chủ sở hữu website</t>
+  </si>
+  <si>
+    <t>thiết kế photoshop giỏ hàng</t>
+  </si>
+  <si>
+    <t>thiết kế photoshop Quản lý đơn đặt hàng</t>
+  </si>
+  <si>
+    <t>thiết kế photoshop Quản lý người dùng</t>
+  </si>
+  <si>
+    <t>thiết kế photoshop Quản lý danh mục tin tức</t>
+  </si>
+  <si>
+    <t>thiết kế photoshop Giỏ hàng</t>
+  </si>
+  <si>
+    <t>thiết kế photoshopĐăng nhập đăng ký và đăng xuất</t>
+  </si>
+  <si>
+    <t>thiết kế photoshop Chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>thiết kế photoshop chức năng hiển thị thông tin chi tiết đơn đặt hàng bao gồm thông tin về khách hàng, thông tin về các sản phẩm trong đơn hàng, nhân viên thực hiện giao đơn hàng, tình trạng đơn hàng, ghi chú của người quản trị</t>
+  </si>
+  <si>
+    <t>thiết kế photoshop chức năng cho phép khách hàng có thể xem, điều chỉnh mặt hàng mình đã chọn mua. Bao gồm tính tổng giá sản phẩm mà khách hàng mua.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thiết kế photoshop chức năng người dùng và quản trị có thể đăng nhập, đăng ký và đăng xuất vào hệ thống website hoặc hệ thống quản trị </t>
+  </si>
+  <si>
+    <t>thiết kế photoshop người dùng tự chỉnh sửa thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>thiết kế photoshop trang chỉnh sửa thông tin người dùng</t>
+  </si>
+  <si>
+    <t>31/10/2017</t>
   </si>
 </sst>
 </file>
@@ -232,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -263,6 +348,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -276,6 +364,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -590,18 +681,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="66.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -619,8 +710,8 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16">
-        <v>43049</v>
+      <c r="D2" s="18">
+        <v>42835</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -630,40 +721,40 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>19</v>
+      <c r="D4" s="18">
+        <v>43049</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="14" t="s">
-        <v>20</v>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="14" t="s">
-        <v>21</v>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="14" t="s">
-        <v>22</v>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -671,119 +762,729 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
-        <v>15</v>
+      <c r="B14" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="13"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="D10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E15" s="2"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/DuAn2_TeamNguyenXuanThang/DuAn2Lan5_TeamNguyenXuanThang/DuAn2_Team(NguyenXuanThang)/tuan5.xlsx
+++ b/DuAn2_TeamNguyenXuanThang/DuAn2Lan5_TeamNguyenXuanThang/DuAn2_Team(NguyenXuanThang)/tuan5.xlsx
@@ -9,13 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>Ngành :Ứng dụng phần mềm</t>
   </si>
@@ -98,31 +96,10 @@
     <t>Nguyễn Phước Cường</t>
   </si>
   <si>
-    <t>Phân tích chức năng thống kê đơn đặt hàng đặt bởi khách hàng, xem tình trạng đơn đặt hàng như: Đã giao hàng, và chi tiết đơn đặt hàng</t>
-  </si>
-  <si>
-    <t>Phân tích chức năng hiển thị thông tin chi tiết người dùng và có các chức năng Thêm mới, sửa, xóa thông tin người dùng</t>
-  </si>
-  <si>
-    <t>Thành viên:</t>
-  </si>
-  <si>
-    <t>Nguyễn Xuân Thắng (Nhóm trưởng)</t>
-  </si>
-  <si>
-    <t>Thống kê đơn đặt hàng đặt bởi khách hàng, xem tình trạng đơn đặt hàng như: Đã giao hàng, và chi tiết đơn đặt hàng</t>
-  </si>
-  <si>
     <t>đến ngày</t>
   </si>
   <si>
     <t>thiết kế photoshop trang Tìm kiếm sản phẩm</t>
-  </si>
-  <si>
-    <t>thiết kế photoshop trang Quản lý sản phẩm</t>
-  </si>
-  <si>
-    <t>thiết kế photoshop trang Quản lý Bình Luận</t>
   </si>
   <si>
     <t xml:space="preserve">thiết kế photoshop Trang thanh toán
@@ -132,54 +109,24 @@
     <t>thiết kế photoshop trang chức năng khách hàng nhập thông tin vào thanh tìm kiếm để tìm kiếm sản phẩm</t>
   </si>
   <si>
-    <t>thiết kế photoshop trang chức năng quản lý thông tin hình ảnh sản phẩm, người quản trị có thể upload hình ảnh sản phẩm, nhập thông tin mô tả tính năng sản phẩm, giá cả, số  lượng</t>
-  </si>
-  <si>
-    <t>thiết kế photoshop trang Quản lý bình luận của các tài khoản khách hàng và mạng liên kết</t>
-  </si>
-  <si>
     <t>thiết kế photoshop trang thanh toán cho khách hàng</t>
   </si>
   <si>
     <t>thiết kế photoshop trang Bình luận + chi tiet san pham</t>
   </si>
   <si>
-    <t>thiết kế photoshop trang Quản lý danh mục sản phẩm</t>
-  </si>
-  <si>
-    <t>thiết kế photoshop trang Quản lý Tin tức</t>
-  </si>
-  <si>
     <t>thiết kế photoshop trang trang liên hệ</t>
   </si>
   <si>
     <t>thiết kế photoshop trang bình luận về sản phẩm, nội dung và thông tin người bình luận cần lưu trong database.</t>
   </si>
   <si>
-    <t>thiết kế photoshop trang chức năng quản lý thông tin danh mục sản phẩm bao gồm các chức năng thêm, xóa sửa danh mục sản phẩm</t>
-  </si>
-  <si>
-    <t>thiết kế photoshop trang Quản lý thông tin danh mục tin tức bao gồm các chức năng thêm, xóa sửa tin tức</t>
-  </si>
-  <si>
     <t>thiết kế photoshop trang liên hệ với người quản lý qua email hoặc thông tin liên hệ của chủ sở hữu website</t>
   </si>
   <si>
     <t>thiết kế photoshop giỏ hàng</t>
   </si>
   <si>
-    <t>thiết kế photoshop Quản lý đơn đặt hàng</t>
-  </si>
-  <si>
-    <t>thiết kế photoshop Quản lý người dùng</t>
-  </si>
-  <si>
-    <t>thiết kế photoshop Quản lý danh mục tin tức</t>
-  </si>
-  <si>
-    <t>thiết kế photoshop Giỏ hàng</t>
-  </si>
-  <si>
     <t>thiết kế photoshopĐăng nhập đăng ký và đăng xuất</t>
   </si>
   <si>
@@ -187,9 +134,6 @@
   </si>
   <si>
     <t>thiết kế photoshop chức năng hiển thị thông tin chi tiết đơn đặt hàng bao gồm thông tin về khách hàng, thông tin về các sản phẩm trong đơn hàng, nhân viên thực hiện giao đơn hàng, tình trạng đơn hàng, ghi chú của người quản trị</t>
-  </si>
-  <si>
-    <t>thiết kế photoshop chức năng cho phép khách hàng có thể xem, điều chỉnh mặt hàng mình đã chọn mua. Bao gồm tính tổng giá sản phẩm mà khách hàng mua.</t>
   </si>
   <si>
     <t xml:space="preserve">thiết kế photoshop chức năng người dùng và quản trị có thể đăng nhập, đăng ký và đăng xuất vào hệ thống website hoặc hệ thống quản trị </t>
@@ -317,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -364,9 +308,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -681,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -710,7 +651,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>42835</v>
       </c>
       <c r="E2" s="2"/>
@@ -721,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -730,7 +671,7 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>43049</v>
       </c>
       <c r="E4" s="2"/>
@@ -782,73 +723,73 @@
     </row>
     <row r="10" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F13" s="12"/>
     </row>
@@ -886,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -984,16 +925,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F10" s="11"/>
     </row>
@@ -1002,54 +943,54 @@
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="D11" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>3</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>57</v>
-      </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>4</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
@@ -1082,412 +1023,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="65.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>1</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>2</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>3</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>4</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29" style="1" customWidth="1"/>
-    <col min="3" max="3" width="65.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>1</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>2</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>3</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>4</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>